--- a/experiment/PipelineBFT实验结果.xlsx
+++ b/experiment/PipelineBFT实验结果.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thegloves/workspace/chainbft_demo/experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384E4BC6-1BBA-E645-BF89-8D6D7D907B00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB29E3E-A2BC-8247-A6F8-6853E133D79C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5680" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{C4CD5E48-E395-694E-8A42-04066B1D601F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" activeTab="2" xr2:uid="{C4CD5E48-E395-694E-8A42-04066B1D601F}"/>
   </bookViews>
   <sheets>
     <sheet name="v1.3" sheetId="1" r:id="rId1"/>
     <sheet name="v1.3+gossip" sheetId="2" r:id="rId2"/>
-    <sheet name="fabric" sheetId="3" r:id="rId3"/>
+    <sheet name="v1.4" sheetId="4" r:id="rId3"/>
+    <sheet name="fabric" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">'v1.3+gossip'!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'v1.3+gossip'!$D$2:$D$4</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'v1.4'!$C$2:$C$9</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">'v1.4'!$C$2:$C$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t>节点数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -279,6 +280,10 @@
   </si>
   <si>
     <t>4*200</t>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -961,6 +966,278 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'v1.4'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'v1.4'!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>41099.045824954002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33735.521676212302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20770.897872738598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15562.865468661001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9347.9501319752799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7606.6329193646197</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4535.0016397264899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2722.62110858602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E24E-5042-9597-B2360AF7D92D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="563033375"/>
+        <c:axId val="539701647"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="563033375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539701647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="539701647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="563033375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1041,6 +1318,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1558,6 +1875,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2142,6 +2975,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>550792</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>112368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>153227</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>163720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7474F76A-150D-1446-B8C7-0A87C6151F3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3108,8 +3982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB606707-5AB0-1B4A-B967-81739F278A64}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView zoomScale="160" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3883,6 +4757,336 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA5C8CC-CA5D-7D4D-B4FE-86F9B70E9CCE}">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>3*A2+1</f>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>41099.045824954002</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>10000</v>
+      </c>
+      <c r="J2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B9" si="0">3*A3+1</f>
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>33735.521676212302</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="I3">
+        <v>15000</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2722.62110858602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20770.897872738598</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>15562.865468661001</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="G5">
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>15000</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2618.6428529925201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9347.9501319752799</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="I6">
+        <v>25000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4535.0016397264899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7606.6329193646197</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4535.0016397264899</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="G8">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>30000</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5560.0679023779803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2722.62110858602</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="I9">
+        <v>40000</v>
+      </c>
+      <c r="J9" s="1">
+        <v>7606.6329193646197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>50000</v>
+      </c>
+      <c r="J11" s="1">
+        <v>9347.9501319752799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="I12">
+        <v>60000</v>
+      </c>
+      <c r="J12" s="1">
+        <v>11396.2463392993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="G14">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>80000</v>
+      </c>
+      <c r="J14" s="1">
+        <v>13556.0497200392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="I15">
+        <v>90000</v>
+      </c>
+      <c r="J15" s="1">
+        <v>15562.865468661001</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10">
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>100000</v>
+      </c>
+      <c r="J17" s="1">
+        <v>18909.314902006601</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10">
+      <c r="I18">
+        <v>110000</v>
+      </c>
+      <c r="J18" s="1">
+        <v>20770.897872738598</v>
+      </c>
+    </row>
+    <row r="20" spans="7:10">
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>120000</v>
+      </c>
+      <c r="J20" s="1">
+        <v>22646.413104720199</v>
+      </c>
+    </row>
+    <row r="21" spans="7:10">
+      <c r="I21">
+        <v>140000</v>
+      </c>
+      <c r="J21" s="1">
+        <v>26373.0669641229</v>
+      </c>
+    </row>
+    <row r="22" spans="7:10">
+      <c r="I22">
+        <v>160000</v>
+      </c>
+      <c r="J22" s="1">
+        <v>30032.228882201802</v>
+      </c>
+    </row>
+    <row r="23" spans="7:10">
+      <c r="I23">
+        <v>180000</v>
+      </c>
+      <c r="J23" s="1">
+        <v>33735.521676212302</v>
+      </c>
+    </row>
+    <row r="25" spans="7:10">
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>200000</v>
+      </c>
+      <c r="J25" s="1">
+        <v>37422.312132070198</v>
+      </c>
+    </row>
+    <row r="26" spans="7:10">
+      <c r="I26">
+        <v>220000</v>
+      </c>
+      <c r="J26" s="1">
+        <v>41099.045824954002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5332A9-9E83-CB48-B167-9FBCB01E7D70}">
   <dimension ref="A1:F14"/>
   <sheetViews>

--- a/experiment/PipelineBFT实验结果.xlsx
+++ b/experiment/PipelineBFT实验结果.xlsx
@@ -8,19 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thegloves/workspace/chainbft_demo/experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384E4BC6-1BBA-E645-BF89-8D6D7D907B00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DB4514-2E36-2C4E-A31E-B3FFD365A9FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5680" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{C4CD5E48-E395-694E-8A42-04066B1D601F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" activeTab="4" xr2:uid="{C4CD5E48-E395-694E-8A42-04066B1D601F}"/>
   </bookViews>
   <sheets>
     <sheet name="v1.3" sheetId="1" r:id="rId1"/>
     <sheet name="v1.3+gossip" sheetId="2" r:id="rId2"/>
-    <sheet name="fabric" sheetId="3" r:id="rId3"/>
+    <sheet name="v1.4" sheetId="4" r:id="rId3"/>
+    <sheet name="fabric" sheetId="3" r:id="rId4"/>
+    <sheet name="签名" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">'v1.3+gossip'!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'v1.3+gossip'!$D$2:$D$4</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
   <si>
     <t>节点数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -177,10 +175,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>proposalSize kb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>固定节点规模，测试不同区块大小的广播时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -279,13 +273,48 @@
   </si>
   <si>
     <t>4*200</t>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>proposalSize kb(origin json)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易条数</t>
+  </si>
+  <si>
+    <t>单条交易大小(B)</t>
+  </si>
+  <si>
+    <t>区块大小</t>
+  </si>
+  <si>
+    <t>广播耗时</t>
+  </si>
+  <si>
+    <t>签名生成耗时</t>
+  </si>
+  <si>
+    <t>验证耗时</t>
+  </si>
+  <si>
+    <t>bls</t>
+  </si>
+  <si>
+    <t>ed25519</t>
+  </si>
+  <si>
+    <t>nul</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -346,6 +375,23 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -369,7 +415,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -392,6 +438,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -961,6 +1013,278 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'v1.4'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'v1.4'!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>41099.045824954002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33735.521676212302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20770.897872738598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15562.865468661001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9347.9501319752799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7606.6329193646197</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4535.0016397264899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2722.62110858602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E24E-5042-9597-B2360AF7D92D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="563033375"/>
+        <c:axId val="539701647"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="563033375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539701647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="539701647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="563033375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1041,6 +1365,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1558,6 +1922,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2142,6 +3022,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>550792</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>112368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>153227</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>163720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7474F76A-150D-1446-B8C7-0A87C6151F3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3108,8 +4029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB606707-5AB0-1B4A-B967-81739F278A64}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="E1" zoomScale="234" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3146,10 +4067,10 @@
         <v>35</v>
       </c>
       <c r="M1" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="O1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -3523,7 +4444,7 @@
         <v>2.1099830786111098</v>
       </c>
       <c r="L22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3540,7 +4461,7 @@
         <v>1.9980001064999999</v>
       </c>
       <c r="L23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -3557,7 +4478,7 @@
         <v>2.2565357261250001</v>
       </c>
       <c r="L24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -3574,32 +4495,32 @@
         <v>8.0018483805749998</v>
       </c>
       <c r="L25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
         <v>44</v>
-      </c>
-      <c r="B26" t="s">
-        <v>45</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="L26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28">
         <v>13</v>
@@ -3883,6 +4804,336 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA5C8CC-CA5D-7D4D-B4FE-86F9B70E9CCE}">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>3*A2+1</f>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>41099.045824954002</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>10000</v>
+      </c>
+      <c r="J2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B9" si="0">3*A3+1</f>
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>33735.521676212302</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="I3">
+        <v>15000</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2722.62110858602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20770.897872738598</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>15562.865468661001</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="G5">
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>15000</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2618.6428529925201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>9347.9501319752799</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="I6">
+        <v>25000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4535.0016397264899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7606.6329193646197</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4535.0016397264899</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="G8">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>30000</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5560.0679023779803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2722.62110858602</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="I9">
+        <v>40000</v>
+      </c>
+      <c r="J9" s="1">
+        <v>7606.6329193646197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>50000</v>
+      </c>
+      <c r="J11" s="1">
+        <v>9347.9501319752799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="I12">
+        <v>60000</v>
+      </c>
+      <c r="J12" s="1">
+        <v>11396.2463392993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="G14">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>80000</v>
+      </c>
+      <c r="J14" s="1">
+        <v>13556.0497200392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="I15">
+        <v>90000</v>
+      </c>
+      <c r="J15" s="1">
+        <v>15562.865468661001</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10">
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>100000</v>
+      </c>
+      <c r="J17" s="1">
+        <v>18909.314902006601</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10">
+      <c r="I18">
+        <v>110000</v>
+      </c>
+      <c r="J18" s="1">
+        <v>20770.897872738598</v>
+      </c>
+    </row>
+    <row r="20" spans="7:10">
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>120000</v>
+      </c>
+      <c r="J20" s="1">
+        <v>22646.413104720199</v>
+      </c>
+    </row>
+    <row r="21" spans="7:10">
+      <c r="I21">
+        <v>140000</v>
+      </c>
+      <c r="J21" s="1">
+        <v>26373.0669641229</v>
+      </c>
+    </row>
+    <row r="22" spans="7:10">
+      <c r="I22">
+        <v>160000</v>
+      </c>
+      <c r="J22" s="1">
+        <v>30032.228882201802</v>
+      </c>
+    </row>
+    <row r="23" spans="7:10">
+      <c r="I23">
+        <v>180000</v>
+      </c>
+      <c r="J23" s="1">
+        <v>33735.521676212302</v>
+      </c>
+    </row>
+    <row r="25" spans="7:10">
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>200000</v>
+      </c>
+      <c r="J25" s="1">
+        <v>37422.312132070198</v>
+      </c>
+    </row>
+    <row r="26" spans="7:10">
+      <c r="I26">
+        <v>220000</v>
+      </c>
+      <c r="J26" s="1">
+        <v>41099.045824954002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5332A9-9E83-CB48-B167-9FBCB01E7D70}">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -3894,22 +5145,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3917,7 +5168,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="6">
         <v>9.8499699999999996E-2</v>
@@ -3937,7 +5188,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="6">
         <v>0.17177700000000001</v>
@@ -3957,7 +5208,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="6">
         <v>0.173434</v>
@@ -3977,7 +5228,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="6">
         <v>0.183445</v>
@@ -3997,7 +5248,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="6">
         <v>0.136271</v>
@@ -4017,7 +5268,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="6">
         <v>0.19839999999999999</v>
@@ -4037,7 +5288,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="6">
         <v>0.235985</v>
@@ -4057,7 +5308,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="6">
         <v>0.224379</v>
@@ -4077,7 +5328,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="6">
         <v>0.11659</v>
@@ -4097,7 +5348,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="6">
         <v>0.19082099999999999</v>
@@ -4117,7 +5368,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="6">
         <v>0.34422900000000001</v>
@@ -4126,7 +5377,7 @@
         <v>1.1520300000000001</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="6">
         <v>10000</v>
@@ -4137,7 +5388,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="6">
         <v>0.33535700000000002</v>
@@ -4157,7 +5408,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="6">
         <v>0.29575899999999999</v>
@@ -4170,6 +5421,112 @@
       </c>
       <c r="F14" s="6">
         <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D68C464-3BE8-804F-9752-3B1C014541AE}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="8">
+        <v>296</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="E2" s="8">
+        <v>31</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1550</v>
+      </c>
+      <c r="G2" s="8">
+        <v>4152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="8">
+        <v>200</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.308</v>
+      </c>
+      <c r="E3" s="8">
+        <v>30</v>
+      </c>
+      <c r="F3" s="8">
+        <v>152</v>
+      </c>
+      <c r="G3" s="8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="8">
+        <v>100</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E4" s="8">
+        <v>30</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
